--- a/gestion/Caso I.xlsx
+++ b/gestion/Caso I.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univeuropeaes-my.sharepoint.com/personal/javier_arco_universidadeuropea_es/Documents/Documents/DEPORTE/Dirección Financiera/Clases 24-25/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\segundo\gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="342" documentId="8_{8E435434-7D79-49C9-BC51-007878F850B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7F68998-08C7-4622-9591-E5F396CB00D9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829FCA63-761B-465B-AD9E-6DA9BEB7D60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="7" xr2:uid="{340967FD-790C-4F51-B108-6173DBD85FBC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="7" xr2:uid="{340967FD-790C-4F51-B108-6173DBD85FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Estructura FC" sheetId="2" r:id="rId1"/>
@@ -359,8 +359,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -819,7 +819,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -832,10 +832,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -866,7 +866,34 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="8" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -876,36 +903,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -921,12 +921,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1228,13 +1224,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" customWidth="1"/>
-    <col min="2" max="2" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1242,7 +1238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1250,7 +1246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1261,7 +1257,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1272,7 +1268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1283,7 +1279,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1294,7 +1290,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1305,7 +1301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1313,7 +1309,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1324,7 +1320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1335,7 +1331,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1346,7 +1342,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1364,12 +1360,12 @@
   <dimension ref="C5:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>68</v>
       </c>
@@ -1377,12 +1373,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>73</v>
       </c>
@@ -1396,7 +1392,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>66</v>
       </c>
@@ -1404,12 +1400,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>76</v>
       </c>
@@ -1427,17 +1423,17 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1454,7 +1450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1474,7 +1470,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1494,7 +1490,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1514,7 +1510,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1534,42 +1530,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1589,7 +1585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1609,7 +1605,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1629,7 +1625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1649,7 +1645,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1669,7 +1665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1689,17 +1685,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1720,14 +1716,14 @@
       <selection activeCell="B16" sqref="B16:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.6328125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.6640625" bestFit="1" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>90</v>
       </c>
@@ -1736,7 +1732,7 @@
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
     </row>
-    <row r="3" spans="2:6" ht="15.5" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="23" t="s">
@@ -1749,7 +1745,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="40.799999999999997" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="25" t="s">
@@ -1762,7 +1758,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="20" t="s">
         <v>91</v>
       </c>
@@ -1771,7 +1767,7 @@
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
         <v>93</v>
@@ -1786,7 +1782,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
         <v>94</v>
@@ -1801,7 +1797,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
         <v>95</v>
@@ -1816,7 +1812,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
         <v>96</v>
@@ -1831,7 +1827,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19"/>
       <c r="C10" s="19" t="s">
         <v>97</v>
@@ -1846,7 +1842,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
         <v>92</v>
       </c>
@@ -1855,7 +1851,7 @@
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19"/>
       <c r="C12" s="19" t="s">
         <v>80</v>
@@ -1870,7 +1866,7 @@
         <v>4.0347551342812</v>
       </c>
     </row>
-    <row r="13" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B13" s="19"/>
       <c r="C13" s="19" t="s">
         <v>82</v>
@@ -1885,7 +1881,7 @@
         <v>264.49370561094298</v>
       </c>
     </row>
-    <row r="14" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B14" s="19"/>
       <c r="C14" s="19" t="s">
         <v>83</v>
@@ -1900,7 +1896,7 @@
         <v>0.194826109015174</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="21"/>
       <c r="C15" s="21" t="s">
         <v>98</v>
@@ -1929,20 +1925,20 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="6" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="8.08984375" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -1977,7 +1973,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2021,7 +2017,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2068,7 +2064,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -2115,7 +2111,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2162,7 +2158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -2208,7 +2204,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2245,7 +2241,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2282,7 +2278,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -2319,7 +2315,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -2356,7 +2352,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -2393,7 +2389,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -2427,7 +2423,7 @@
         <v>207.5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2465,7 +2461,7 @@
         <v>-93</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I14" t="s">
         <v>23</v>
       </c>
@@ -2481,7 +2477,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -2538,7 +2534,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -2563,7 +2559,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -2619,7 +2615,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -2644,7 +2640,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -2683,7 +2679,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J20" s="8" t="s">
         <v>82</v>
       </c>
@@ -2696,7 +2692,7 @@
         <v>Efectuable</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J21" s="8" t="s">
         <v>83</v>
       </c>
@@ -2746,20 +2742,20 @@
       <selection activeCell="N9" sqref="N9:P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="6" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="8.08984375" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -2794,7 +2790,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2838,7 +2834,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2885,7 +2881,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -2932,7 +2928,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2979,7 +2975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -3025,7 +3021,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -3062,7 +3058,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -3099,7 +3095,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -3134,7 +3130,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -3171,7 +3167,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -3208,7 +3204,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -3242,7 +3238,7 @@
         <v>207.5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -3280,7 +3276,7 @@
         <v>-93</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I14" t="s">
         <v>23</v>
       </c>
@@ -3296,7 +3292,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -3353,7 +3349,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -3378,7 +3374,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -3434,7 +3430,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -3459,7 +3455,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -3498,7 +3494,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J20" s="8" t="s">
         <v>82</v>
       </c>
@@ -3511,7 +3507,7 @@
         <v>Efectuable</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J21" s="8" t="s">
         <v>83</v>
       </c>
@@ -3537,20 +3533,20 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="6" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="8.08984375" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -3585,7 +3581,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -3629,7 +3625,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3676,7 +3672,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -3723,7 +3719,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -3770,7 +3766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -3816,7 +3812,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -3853,7 +3849,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -3890,7 +3886,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -3927,7 +3923,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -3964,7 +3960,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -4001,7 +3997,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -4035,7 +4031,7 @@
         <v>207.5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -4073,7 +4069,7 @@
         <v>-93</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I14" t="s">
         <v>23</v>
       </c>
@@ -4089,7 +4085,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -4146,7 +4142,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -4171,7 +4167,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -4227,7 +4223,7 @@
         <v>274.30005486970657</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -4252,7 +4248,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -4291,7 +4287,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J20" s="8" t="s">
         <v>82</v>
       </c>
@@ -4304,7 +4300,7 @@
         <v>No efectuable</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J21" s="8" t="s">
         <v>83</v>
       </c>
@@ -4330,20 +4326,20 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="6" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="8.08984375" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -4378,7 +4374,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -4422,7 +4418,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4469,7 +4465,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -4516,7 +4512,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -4563,7 +4559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -4609,7 +4605,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -4646,7 +4642,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -4683,7 +4679,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -4720,7 +4716,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -4757,7 +4753,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -4794,7 +4790,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -4828,7 +4824,7 @@
         <v>207.5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -4866,7 +4862,7 @@
         <v>-93</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I14" t="s">
         <v>23</v>
       </c>
@@ -4882,7 +4878,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -4939,7 +4935,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -4964,7 +4960,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -5020,7 +5016,7 @@
         <v>444.55000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -5045,7 +5041,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -5084,7 +5080,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J20" s="8" t="s">
         <v>82</v>
       </c>
@@ -5097,7 +5093,7 @@
         <v>Efectuable</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J21" s="8" t="s">
         <v>83</v>
       </c>
@@ -5119,24 +5115,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8FE890-8F30-4A98-A9FD-D65DC4C2F386}">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="6" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" customWidth="1"/>
-    <col min="12" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="22" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="22" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -5171,7 +5167,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -5215,7 +5211,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -5262,7 +5258,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -5309,7 +5305,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -5356,7 +5352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -5402,7 +5398,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -5439,7 +5435,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -5476,7 +5472,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -5513,7 +5509,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -5550,7 +5546,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -5587,7 +5583,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -5621,7 +5617,7 @@
         <v>207.5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -5659,7 +5655,7 @@
         <v>-93</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I14" t="s">
         <v>23</v>
       </c>
@@ -5675,7 +5671,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -5732,7 +5728,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -5757,7 +5753,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -5813,7 +5809,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -5839,7 +5835,7 @@
       </c>
       <c r="J18" s="26"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -5878,7 +5874,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="J20" s="8" t="s">
         <v>82</v>
       </c>
@@ -5891,7 +5887,7 @@
         <v>Efectuable</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="J21" s="8" t="s">
         <v>83</v>
       </c>
@@ -5904,334 +5900,334 @@
         <v>Efectuable</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L23" s="32" t="s">
+    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L23" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="34"/>
-    </row>
-    <row r="24" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="49"/>
+    </row>
+    <row r="24" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K24" s="28">
         <f>K20</f>
         <v>91.38822787448396</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="32">
         <v>40</v>
       </c>
-      <c r="M24" s="35">
+      <c r="M24" s="29">
         <v>45</v>
       </c>
-      <c r="N24" s="35">
+      <c r="N24" s="29">
         <v>50</v>
       </c>
-      <c r="O24" s="35">
+      <c r="O24" s="29">
         <v>55</v>
       </c>
-      <c r="P24" s="36">
+      <c r="P24" s="30">
         <v>60</v>
       </c>
-      <c r="Q24" s="35">
+      <c r="Q24" s="29">
         <v>65</v>
       </c>
-      <c r="R24" s="35">
+      <c r="R24" s="29">
         <v>70</v>
       </c>
-      <c r="S24" s="35">
+      <c r="S24" s="29">
         <v>75</v>
       </c>
-      <c r="T24" s="35">
-        <v>80</v>
-      </c>
-      <c r="U24" s="35">
+      <c r="T24" s="29">
+        <v>80</v>
+      </c>
+      <c r="U24" s="29">
         <v>85</v>
       </c>
-      <c r="V24" s="37">
+      <c r="V24" s="31">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="J25" s="29" t="s">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J25" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="33">
         <v>20</v>
       </c>
-      <c r="L25" s="43">
+      <c r="L25" s="37">
         <f t="dataTable" ref="L25:V31" dt2D="1" dtr="1" r1="B3" r2="B4"/>
         <v>105.52845176136213</v>
       </c>
-      <c r="M25" s="44">
+      <c r="M25" s="38">
         <v>108.87412973459675</v>
       </c>
-      <c r="N25" s="44">
+      <c r="N25" s="38">
         <v>112.21980770783136</v>
       </c>
-      <c r="O25" s="44">
+      <c r="O25" s="38">
         <v>115.56548568106598</v>
       </c>
-      <c r="P25" s="44">
+      <c r="P25" s="38">
         <v>118.91116365430048</v>
       </c>
-      <c r="Q25" s="44">
+      <c r="Q25" s="38">
         <v>122.25684162753498</v>
       </c>
-      <c r="R25" s="44">
+      <c r="R25" s="38">
         <v>125.6025196007696</v>
       </c>
-      <c r="S25" s="44">
+      <c r="S25" s="38">
         <v>128.94819757400421</v>
       </c>
-      <c r="T25" s="44">
+      <c r="T25" s="38">
         <v>132.29387554723883</v>
       </c>
-      <c r="U25" s="44">
+      <c r="U25" s="38">
         <v>135.63955352047344</v>
       </c>
-      <c r="V25" s="45">
+      <c r="V25" s="39">
         <v>138.98523149370794</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="J26" s="30"/>
-      <c r="K26" s="40">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J26" s="51"/>
+      <c r="K26" s="34">
         <v>40</v>
       </c>
-      <c r="L26" s="46">
+      <c r="L26" s="40">
         <v>91.766983871453931</v>
       </c>
-      <c r="M26" s="47">
+      <c r="M26" s="41">
         <v>95.112661844688432</v>
       </c>
-      <c r="N26" s="47">
+      <c r="N26" s="41">
         <v>98.458339817923047</v>
       </c>
-      <c r="O26" s="47">
+      <c r="O26" s="41">
         <v>101.80401779115766</v>
       </c>
-      <c r="P26" s="47">
+      <c r="P26" s="41">
         <v>105.14969576439228</v>
       </c>
-      <c r="Q26" s="47">
+      <c r="Q26" s="41">
         <v>108.49537373762678</v>
       </c>
-      <c r="R26" s="47">
+      <c r="R26" s="41">
         <v>111.84105171086139</v>
       </c>
-      <c r="S26" s="47">
+      <c r="S26" s="41">
         <v>115.18672968409601</v>
       </c>
-      <c r="T26" s="47">
+      <c r="T26" s="41">
         <v>118.53240765733051</v>
       </c>
-      <c r="U26" s="47">
+      <c r="U26" s="41">
         <v>121.87808563056512</v>
       </c>
-      <c r="V26" s="48">
+      <c r="V26" s="42">
         <v>125.22376360379963</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="J27" s="30"/>
-      <c r="K27" s="41">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J27" s="51"/>
+      <c r="K27" s="35">
         <v>60</v>
       </c>
-      <c r="L27" s="46">
+      <c r="L27" s="40">
         <v>78.005515981545727</v>
       </c>
-      <c r="M27" s="47">
+      <c r="M27" s="41">
         <v>81.351193954780229</v>
       </c>
-      <c r="N27" s="47">
+      <c r="N27" s="41">
         <v>84.696871928014843</v>
       </c>
-      <c r="O27" s="47">
+      <c r="O27" s="41">
         <v>88.042549901249458</v>
       </c>
-      <c r="P27" s="52">
+      <c r="P27" s="46">
         <v>91.38822787448396</v>
       </c>
-      <c r="Q27" s="47">
+      <c r="Q27" s="41">
         <v>94.733905847718574</v>
       </c>
-      <c r="R27" s="47">
+      <c r="R27" s="41">
         <v>98.079583820953076</v>
       </c>
-      <c r="S27" s="47">
+      <c r="S27" s="41">
         <v>101.42526179418769</v>
       </c>
-      <c r="T27" s="47">
+      <c r="T27" s="41">
         <v>104.77093976742231</v>
       </c>
-      <c r="U27" s="47">
+      <c r="U27" s="41">
         <v>108.11661774065692</v>
       </c>
-      <c r="V27" s="48">
+      <c r="V27" s="42">
         <v>111.46229571389142</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="J28" s="30"/>
-      <c r="K28" s="40">
-        <v>80</v>
-      </c>
-      <c r="L28" s="46">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J28" s="51"/>
+      <c r="K28" s="34">
+        <v>80</v>
+      </c>
+      <c r="L28" s="40">
         <v>64.244048091637524</v>
       </c>
-      <c r="M28" s="47">
+      <c r="M28" s="41">
         <v>67.589726064871911</v>
       </c>
-      <c r="N28" s="47">
+      <c r="N28" s="41">
         <v>70.935404038106526</v>
       </c>
-      <c r="O28" s="47">
+      <c r="O28" s="41">
         <v>74.281082011341141</v>
       </c>
-      <c r="P28" s="47">
+      <c r="P28" s="41">
         <v>77.626759984575756</v>
       </c>
-      <c r="Q28" s="47">
+      <c r="Q28" s="41">
         <v>80.972437957810371</v>
       </c>
-      <c r="R28" s="47">
+      <c r="R28" s="41">
         <v>84.318115931044872</v>
       </c>
-      <c r="S28" s="47">
+      <c r="S28" s="41">
         <v>87.663793904279487</v>
       </c>
-      <c r="T28" s="47">
+      <c r="T28" s="41">
         <v>91.009471877513988</v>
       </c>
-      <c r="U28" s="47">
+      <c r="U28" s="41">
         <v>94.355149850748603</v>
       </c>
-      <c r="V28" s="48">
+      <c r="V28" s="42">
         <v>97.700827823983218</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="J29" s="30"/>
-      <c r="K29" s="40">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J29" s="51"/>
+      <c r="K29" s="34">
         <v>100</v>
       </c>
-      <c r="L29" s="46">
+      <c r="L29" s="40">
         <v>50.482580201729206</v>
       </c>
-      <c r="M29" s="47">
+      <c r="M29" s="41">
         <v>53.828258174963707</v>
       </c>
-      <c r="N29" s="47">
+      <c r="N29" s="41">
         <v>57.173936148198322</v>
       </c>
-      <c r="O29" s="47">
+      <c r="O29" s="41">
         <v>60.519614121432937</v>
       </c>
-      <c r="P29" s="47">
+      <c r="P29" s="41">
         <v>63.865292094667552</v>
       </c>
-      <c r="Q29" s="47">
+      <c r="Q29" s="41">
         <v>67.210970067902053</v>
       </c>
-      <c r="R29" s="47">
+      <c r="R29" s="41">
         <v>70.556648041136555</v>
       </c>
-      <c r="S29" s="47">
+      <c r="S29" s="41">
         <v>73.90232601437117</v>
       </c>
-      <c r="T29" s="47">
+      <c r="T29" s="41">
         <v>77.248003987605784</v>
       </c>
-      <c r="U29" s="47">
+      <c r="U29" s="41">
         <v>80.593681960840399</v>
       </c>
-      <c r="V29" s="48">
+      <c r="V29" s="42">
         <v>83.939359934075014</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="J30" s="30"/>
-      <c r="K30" s="40">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J30" s="51"/>
+      <c r="K30" s="34">
         <v>120</v>
       </c>
-      <c r="L30" s="46">
+      <c r="L30" s="40">
         <v>36.721112311821003</v>
       </c>
-      <c r="M30" s="47">
+      <c r="M30" s="41">
         <v>40.066790285055504</v>
       </c>
-      <c r="N30" s="47">
+      <c r="N30" s="41">
         <v>43.412468258290005</v>
       </c>
-      <c r="O30" s="47">
+      <c r="O30" s="41">
         <v>46.75814623152462</v>
       </c>
-      <c r="P30" s="47">
+      <c r="P30" s="41">
         <v>50.103824204759235</v>
       </c>
-      <c r="Q30" s="47">
+      <c r="Q30" s="41">
         <v>53.44950217799385</v>
       </c>
-      <c r="R30" s="47">
+      <c r="R30" s="41">
         <v>56.795180151228351</v>
       </c>
-      <c r="S30" s="47">
+      <c r="S30" s="41">
         <v>60.140858124462966</v>
       </c>
-      <c r="T30" s="47">
+      <c r="T30" s="41">
         <v>63.486536097697581</v>
       </c>
-      <c r="U30" s="47">
+      <c r="U30" s="41">
         <v>66.832214070932082</v>
       </c>
-      <c r="V30" s="48">
+      <c r="V30" s="42">
         <v>70.177892044166697</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J31" s="31"/>
-      <c r="K31" s="42">
+    <row r="31" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J31" s="52"/>
+      <c r="K31" s="36">
         <v>140</v>
       </c>
-      <c r="L31" s="49">
+      <c r="L31" s="43">
         <v>22.959644421912685</v>
       </c>
-      <c r="M31" s="50">
+      <c r="M31" s="44">
         <v>26.305322395147186</v>
       </c>
-      <c r="N31" s="50">
+      <c r="N31" s="44">
         <v>29.651000368381801</v>
       </c>
-      <c r="O31" s="50">
+      <c r="O31" s="44">
         <v>32.996678341616416</v>
       </c>
-      <c r="P31" s="50">
+      <c r="P31" s="44">
         <v>36.342356314851031</v>
       </c>
-      <c r="Q31" s="50">
+      <c r="Q31" s="44">
         <v>39.688034288085532</v>
       </c>
-      <c r="R31" s="50">
+      <c r="R31" s="44">
         <v>43.033712261320034</v>
       </c>
-      <c r="S31" s="50">
+      <c r="S31" s="44">
         <v>46.379390234554648</v>
       </c>
-      <c r="T31" s="50">
+      <c r="T31" s="44">
         <v>49.725068207789263</v>
       </c>
-      <c r="U31" s="50">
+      <c r="U31" s="44">
         <v>53.070746181023878</v>
       </c>
-      <c r="V31" s="51">
+      <c r="V31" s="45">
         <v>56.416424154258493</v>
       </c>
     </row>
@@ -6252,20 +6248,20 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="6" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="8.08984375" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -6300,7 +6296,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -6344,7 +6340,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -6391,7 +6387,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -6438,7 +6434,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -6485,7 +6481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -6531,7 +6527,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -6568,7 +6564,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -6605,7 +6601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -6642,7 +6638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -6679,7 +6675,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -6716,7 +6712,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -6750,7 +6746,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -6788,7 +6784,7 @@
         <v>-75.5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I14" t="s">
         <v>23</v>
       </c>
@@ -6804,7 +6800,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -6861,7 +6857,7 @@
         <v>275.5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -6886,7 +6882,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -6942,7 +6938,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -6967,7 +6963,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -7006,7 +7002,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J20" s="8" t="s">
         <v>82</v>
       </c>
@@ -7019,7 +7015,7 @@
         <v>No efectuable</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J21" s="8" t="s">
         <v>83</v>
       </c>
